--- a/file.xlsx
+++ b/file.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/aseem_sethi_hpe_com/Documents/Aseem/personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F6A18CC5-B5F0-4E87-8F46-6D77F941F72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D33C2004-4922-C540-A886-FF5A8954A4C6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17100" windowHeight="17720" xr2:uid="{8D0F9CF4-ECAD-425F-98A3-C85A2774FA5D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17100" windowHeight="17720"/>
   </bookViews>
   <sheets>
     <sheet name="patent" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">patent!$A$1:$C$40</definedName>
+    <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">patent!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -47,16 +46,34 @@
   <si>
     <t>Confirmation</t>
   </si>
+  <si>
+    <t>9925</t>
+  </si>
+  <si>
+    <t>7297</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>9361</t>
+  </si>
+  <si>
+    <t>3435</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm&quot; &quot;d&quot;, &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,7 +82,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="20"/>
       <name val="Calibri"/>
@@ -112,7 +129,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color rgb="FF1B1B1B"/>
       <name val="Georgia"/>
@@ -179,38 +196,38 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="cf1" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="cf2" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="cf1" xfId="2"/>
+    <cellStyle name="cf2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Normal 2 17" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{0B26C711-EA9B-4AF1-B4F5-D5DA5C78AF05}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{49DDCA17-43F7-402E-83E8-4934E036914B}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 17" xfId="5"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -264,7 +281,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,154 +294,154 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="4472C4"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="5B9BD5"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック Light"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线 Light"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+        <font script="Armn" typeface="Arial"/>
+        <font script="Bugi" typeface="Leelawadee UI"/>
+        <font script="Bopo" typeface="Microsoft JhengHei"/>
+        <font script="Java" typeface="Javanese Text"/>
+        <font script="Lisu" typeface="Segoe UI"/>
+        <font script="Mymr" typeface="Myanmar Text"/>
+        <font script="Nkoo" typeface="Ebrima"/>
+        <font script="Olck" typeface="Nirmala UI"/>
+        <font script="Osma" typeface="Ebrima"/>
+        <font script="Phag" typeface="Phagspa"/>
+        <font script="Syrn" typeface="Estrangelo Edessa"/>
+        <font script="Syrj" typeface="Estrangelo Edessa"/>
+        <font script="Syre" typeface="Estrangelo Edessa"/>
+        <font script="Sora" typeface="Nirmala UI"/>
+        <font script="Tale" typeface="Microsoft Tai Le"/>
+        <font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <font script="Tfng" typeface="Ebrima"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+        <font script="Armn" typeface="Arial"/>
+        <font script="Bugi" typeface="Leelawadee UI"/>
+        <font script="Bopo" typeface="Microsoft JhengHei"/>
+        <font script="Java" typeface="Javanese Text"/>
+        <font script="Lisu" typeface="Segoe UI"/>
+        <font script="Mymr" typeface="Myanmar Text"/>
+        <font script="Nkoo" typeface="Ebrima"/>
+        <font script="Olck" typeface="Nirmala UI"/>
+        <font script="Osma" typeface="Ebrima"/>
+        <font script="Phag" typeface="Phagspa"/>
+        <font script="Syrn" typeface="Estrangelo Edessa"/>
+        <font script="Syrj" typeface="Estrangelo Edessa"/>
+        <font script="Syre" typeface="Estrangelo Edessa"/>
+        <font script="Sora" typeface="Nirmala UI"/>
+        <font script="Tale" typeface="Microsoft Tai Le"/>
+        <font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <font script="Tfng" typeface="Ebrima"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -480,8 +497,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -503,8 +520,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -520,8 +537,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -558,37 +575,37 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+  <extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
       <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
-  </a:extLst>
-</a:theme>
+  </extLst>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5C3EA5-45B5-4B03-B13E-38D17DE2CCE2}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="false" tabSelected="true" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.33203125" hidden="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="6.1640625"/>
+    <col bestFit="true" customWidth="true" max="2" min="2" width="9.5"/>
+    <col customWidth="true" max="3" min="3" width="17.5"/>
+    <col customWidth="true" hidden="true" max="15" min="4" width="0"/>
+    <col hidden="true" max="16384" min="16" width="9.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,65 +616,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>11769002</v>
       </c>
-      <c r="C2" s="4">
-        <v>9925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>11770451</v>
       </c>
-      <c r="C3" s="4">
-        <v>7297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>11775771</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>11775772</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>11777849</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>11782620</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -666,7 +691,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -675,7 +700,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -684,7 +709,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -693,7 +718,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -702,7 +727,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -711,7 +736,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -720,7 +745,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -729,7 +754,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -738,7 +763,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -747,7 +772,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -756,7 +781,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -765,7 +790,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -774,7 +799,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -783,7 +808,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -792,7 +817,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -801,7 +826,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -810,7 +835,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -819,7 +844,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -828,7 +853,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -837,7 +862,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -846,7 +871,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -855,7 +880,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -864,7 +889,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -873,7 +898,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -882,7 +907,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -891,7 +916,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -900,7 +925,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -909,7 +934,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -918,7 +943,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -927,7 +952,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -936,7 +961,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -945,7 +970,7 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -954,7 +979,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -963,7 +988,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -972,7 +997,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -981,7 +1006,7 @@
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -990,7 +1015,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -999,7 +1024,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1008,7 +1033,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1017,7 +1042,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1026,7 +1051,7 @@
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1035,7 +1060,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1044,7 +1069,7 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1053,7 +1078,7 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1062,7 +1087,7 @@
       </c>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1071,7 +1096,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1080,7 +1105,7 @@
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1089,7 +1114,7 @@
       </c>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1098,7 +1123,7 @@
       </c>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1107,7 +1132,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1116,7 +1141,7 @@
       </c>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1125,7 +1150,7 @@
       </c>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1134,7 +1159,7 @@
       </c>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1143,7 +1168,7 @@
       </c>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1152,7 +1177,7 @@
       </c>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1163,15 +1188,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="177" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="178" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="179" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="177" stopIfTrue="true"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="178" stopIfTrue="true"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="179" stopIfTrue="true"/>
     <cfRule type="duplicateValues" dxfId="1" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B63">
     <cfRule type="duplicateValues" dxfId="0" priority="176"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup horizontalDpi="1200" r:id="rId1" orientation="portrait" paperSize="9" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/file.xlsx
+++ b/file.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>1072</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>3670</t>
+  </si>
+  <si>
+    <t>3745</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>7105</t>
+  </si>
+  <si>
+    <t>4122</t>
   </si>
 </sst>
 </file>
@@ -689,7 +710,9 @@
       <c r="B8" s="3">
         <v>11782767</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
@@ -698,7 +721,9 @@
       <c r="B9" s="3">
         <v>11782774</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
@@ -707,7 +732,9 @@
       <c r="B10" s="3">
         <v>11782916</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
@@ -716,7 +743,9 @@
       <c r="B11" s="3">
         <v>11782926</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
@@ -725,7 +754,9 @@
       <c r="B12" s="3">
         <v>11782985</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
@@ -734,7 +765,9 @@
       <c r="B13" s="3">
         <v>11783254</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
@@ -743,7 +776,9 @@
       <c r="B14" s="3">
         <v>11784855</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>4122</t>
+  </si>
+  <si>
+    <t>3246</t>
+  </si>
+  <si>
+    <t>5597</t>
+  </si>
+  <si>
+    <t>9935</t>
+  </si>
+  <si>
+    <t>8187</t>
+  </si>
+  <si>
+    <t>4337</t>
   </si>
 </sst>
 </file>
@@ -787,7 +802,9 @@
       <c r="B15" s="3">
         <v>11789782</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
@@ -796,7 +813,9 @@
       <c r="B16" s="3">
         <v>11790242</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
@@ -805,7 +824,9 @@
       <c r="B17" s="3">
         <v>11792153</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
@@ -814,7 +835,9 @@
       <c r="B18" s="3">
         <v>11775527</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
@@ -823,7 +846,9 @@
       <c r="B19" s="3">
         <v>11775759</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>4337</t>
+  </si>
+  <si>
+    <t>5363</t>
+  </si>
+  <si>
+    <t>2910</t>
+  </si>
+  <si>
+    <t>1095</t>
   </si>
 </sst>
 </file>
@@ -875,7 +884,9 @@
       <c r="B22" s="3">
         <v>11775873</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
@@ -884,7 +895,9 @@
       <c r="B23" s="3">
         <v>11777796</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
@@ -893,7 +906,9 @@
       <c r="B24" s="3">
         <v>11777818</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>1095</t>
+  </si>
+  <si>
+    <t>7783</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,9 @@
       <c r="B25" s="3">
         <v>11782429</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">

--- a/file.xlsx
+++ b/file.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>7783</t>
+  </si>
+  <si>
+    <t>Search error</t>
+  </si>
+  <si>
+    <t>4294</t>
   </si>
 </sst>
 </file>
@@ -782,7 +788,7 @@
         <v>11782985</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -793,7 +799,7 @@
         <v>11783254</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -869,7 +875,9 @@
       <c r="B20" s="3">
         <v>11775843</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
@@ -878,7 +886,9 @@
       <c r="B21" s="3">
         <v>11775863</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
@@ -888,7 +898,7 @@
         <v>11775873</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -899,7 +909,7 @@
         <v>11777796</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -931,7 +941,9 @@
       <c r="B26" s="3">
         <v>11782763</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
